--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6875D2-2BB6-4CAC-9CE4-1154A79184DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B9DF34-49FB-4ECE-AD07-5982617C55C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>Alunos</t>
   </si>
@@ -299,13 +299,16 @@
   </si>
   <si>
     <t>Terça</t>
+  </si>
+  <si>
+    <t>4/P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +318,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -348,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,6 +377,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1095,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,6 +1215,9 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1221,6 +1238,9 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1241,6 +1261,9 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1261,6 +1284,9 @@
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1281,6 +1307,9 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1301,6 +1330,9 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1321,6 +1353,9 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1341,6 +1376,9 @@
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1361,6 +1399,9 @@
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1381,6 +1422,9 @@
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1401,6 +1445,9 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1421,6 +1468,9 @@
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1441,6 +1491,9 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1461,6 +1514,9 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1481,6 +1537,9 @@
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1501,6 +1560,9 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1521,6 +1583,9 @@
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -1541,6 +1606,9 @@
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -1561,6 +1629,9 @@
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="4" t="s">
         <v>84</v>
       </c>
@@ -1572,11 +1643,14 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B9DF34-49FB-4ECE-AD07-5982617C55C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E457D627-03BE-4CDC-9836-B42BF2623A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="93">
   <si>
     <t>Alunos</t>
   </si>
@@ -302,13 +302,16 @@
   </si>
   <si>
     <t>4/P</t>
+  </si>
+  <si>
+    <t>EVADIDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,8 +335,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +356,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -356,10 +371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,9 +398,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1089,13 +1112,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS43"/>
+  <dimension ref="A1:AS44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1127,7 @@
     <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.7109375" style="1"/>
-    <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="7.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1117,10 +1140,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1130,7 +1153,9 @@
       <c r="E1" s="2">
         <v>45504</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2">
+        <v>45510</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1184,6 +1209,15 @@
       <c r="D2" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="AJ2" s="1" t="s">
         <v>85</v>
       </c>
@@ -1218,6 +1252,9 @@
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1241,6 +1278,9 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1264,6 +1304,9 @@
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1287,6 +1330,9 @@
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1310,6 +1356,9 @@
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1333,6 +1382,9 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1356,6 +1408,9 @@
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1379,6 +1434,9 @@
       <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1402,6 +1460,9 @@
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1425,6 +1486,9 @@
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1448,6 +1512,9 @@
       <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1471,6 +1538,9 @@
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1494,6 +1564,9 @@
       <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1517,6 +1590,9 @@
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F17" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1540,6 +1616,9 @@
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F18" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1563,6 +1642,9 @@
       <c r="E19" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="F19" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1586,6 +1668,9 @@
       <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F20" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -1609,6 +1694,9 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F21" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -1632,6 +1720,9 @@
       <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="4" t="s">
         <v>84</v>
       </c>
@@ -1643,20 +1734,47 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C23" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1674,6 +1792,9 @@
       <c r="E25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F25" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1691,6 +1812,9 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F26" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1708,6 +1832,9 @@
       <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F27" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1725,6 +1852,9 @@
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F28" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1742,6 +1872,9 @@
       <c r="E29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F29" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1759,6 +1892,10 @@
       <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1776,6 +1913,9 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F31" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1793,8 +1933,11 @@
       <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -1810,8 +1953,11 @@
       <c r="E33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -1827,8 +1973,11 @@
       <c r="E34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -1844,8 +1993,11 @@
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -1861,8 +2013,11 @@
       <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -1878,8 +2033,11 @@
       <c r="E37" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -1895,8 +2053,11 @@
       <c r="E38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -1912,8 +2073,11 @@
       <c r="E39" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -1929,8 +2093,11 @@
       <c r="E40" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
@@ -1946,8 +2113,11 @@
       <c r="E41" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
@@ -1963,8 +2133,11 @@
       <c r="E42" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
@@ -1980,13 +2153,20 @@
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F43" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:A43">
     <sortCondition ref="A25:A43"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C23:AI23"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A23">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
@@ -1998,7 +2178,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD22 A24:XFD1048576 A23:C23 AJ23:XFD23">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -2006,7 +2186,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:BX41">
+  <conditionalFormatting sqref="C3:BX22 F25:F44 C24:BX41 C23 AJ23:BX23">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E457D627-03BE-4CDC-9836-B42BF2623A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58463BF6-1D44-4DF9-A38E-E128FD18A695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="93">
   <si>
     <t>Alunos</t>
   </si>
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,9 +390,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -424,16 +421,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1112,13 +1109,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS44"/>
+  <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,10 +1137,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1252,7 +1249,10 @@
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ4" s="4" t="s">
@@ -1278,7 +1278,10 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ5" s="4" t="s">
@@ -1304,7 +1307,10 @@
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ6" s="4" t="s">
@@ -1330,7 +1336,10 @@
       <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ7" s="4" t="s">
@@ -1356,7 +1365,10 @@
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ8" s="4" t="s">
@@ -1382,7 +1394,10 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ9" s="4" t="s">
@@ -1408,7 +1423,10 @@
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ10" s="4" t="s">
@@ -1434,7 +1452,10 @@
       <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ11" s="4" t="s">
@@ -1460,7 +1481,10 @@
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ12" s="4" t="s">
@@ -1486,7 +1510,10 @@
       <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ13" s="4" t="s">
@@ -1512,7 +1539,10 @@
       <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ14" s="4" t="s">
@@ -1538,7 +1568,10 @@
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ15" s="4" t="s">
@@ -1564,7 +1597,10 @@
       <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ16" s="4" t="s">
@@ -1590,7 +1626,10 @@
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ17" s="4" t="s">
@@ -1616,7 +1655,10 @@
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ18" s="4" t="s">
@@ -1642,7 +1684,10 @@
       <c r="E19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ19" s="4" t="s">
@@ -1668,7 +1713,10 @@
       <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ20" s="4" t="s">
@@ -1694,7 +1742,10 @@
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ21" s="4" t="s">
@@ -1720,7 +1771,10 @@
       <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ22" s="4" t="s">
@@ -1734,47 +1788,47 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1792,7 +1846,10 @@
       <c r="E25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1812,8 +1869,11 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>3</v>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -1832,7 +1892,10 @@
       <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1852,7 +1915,10 @@
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1872,7 +1938,10 @@
       <c r="E29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1892,10 +1961,13 @@
       <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" s="7"/>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1913,7 +1985,10 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1933,11 +2008,14 @@
       <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -1953,11 +2031,14 @@
       <c r="E33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -1973,11 +2054,14 @@
       <c r="E34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -1993,11 +2077,14 @@
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -2013,11 +2100,14 @@
       <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -2033,11 +2123,14 @@
       <c r="E37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2053,11 +2146,14 @@
       <c r="E38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -2073,11 +2169,14 @@
       <c r="E39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -2093,11 +2192,14 @@
       <c r="E40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
@@ -2113,11 +2215,14 @@
       <c r="E41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
@@ -2133,11 +2238,14 @@
       <c r="E42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
@@ -2153,12 +2261,12 @@
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F44" s="6"/>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:A43">
@@ -2178,15 +2286,17 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD22 A24:XFD1048576 A23:C23 AJ23:XFD23">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A1:XFD22 A24:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:BX22 F25:F44 C24:BX41 C23 AJ23:BX23">
+  <conditionalFormatting sqref="A1:XFD22 A24:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 C24:BX41 F25:F44 C3:BX22 G25:G43">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58463BF6-1D44-4DF9-A38E-E128FD18A695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2AB8F8-E44C-4EDB-9361-3113354D0093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="93">
   <si>
     <t>Alunos</t>
   </si>
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,6 +399,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1118,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1157,9 @@
         <v>45510</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2">
+        <v>45517</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1215,6 +1220,9 @@
       <c r="G2" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AJ2" s="1" t="s">
         <v>85</v>
       </c>
@@ -1852,6 +1860,9 @@
       <c r="G25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1875,6 +1886,9 @@
       <c r="G26" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1898,6 +1912,9 @@
       <c r="G27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1921,6 +1938,9 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1944,6 +1964,9 @@
       <c r="G29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1967,6 +1990,9 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H30" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -1991,6 +2017,9 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2014,8 +2043,11 @@
       <c r="G32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -2037,8 +2069,11 @@
       <c r="G33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -2060,8 +2095,11 @@
       <c r="G34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -2083,8 +2121,11 @@
       <c r="G35" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -2106,8 +2147,11 @@
       <c r="G36" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -2129,8 +2173,11 @@
       <c r="G37" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2152,8 +2199,11 @@
       <c r="G38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -2175,8 +2225,11 @@
       <c r="G39" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -2198,8 +2251,11 @@
       <c r="G40" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
@@ -2221,8 +2277,11 @@
       <c r="G41" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
@@ -2244,8 +2303,11 @@
       <c r="G42" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
@@ -2264,7 +2326,10 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2AB8F8-E44C-4EDB-9361-3113354D0093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC22285B-1C80-4D47-AF3A-54B3D7DD2ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="93">
   <si>
     <t>Alunos</t>
   </si>
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,10 +398,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,7 +1121,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,10 +1143,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1263,6 +1266,9 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1292,6 +1298,9 @@
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1321,6 +1330,9 @@
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1350,6 +1362,9 @@
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1379,6 +1394,9 @@
       <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1408,6 +1426,9 @@
       <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H9" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1437,6 +1458,9 @@
       <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H10" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1466,6 +1490,9 @@
       <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1495,6 +1522,9 @@
       <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H12" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1524,6 +1554,9 @@
       <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H13" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1553,6 +1586,9 @@
       <c r="G14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H14" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1582,6 +1618,9 @@
       <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H15" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1611,6 +1650,9 @@
       <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H16" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1640,6 +1682,9 @@
       <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H17" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1669,6 +1714,9 @@
       <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H18" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1698,6 +1746,9 @@
       <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H19" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1727,6 +1778,9 @@
       <c r="G20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H20" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -1756,6 +1810,9 @@
       <c r="G21" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H21" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -1785,6 +1842,9 @@
       <c r="G22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H22" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="4" t="s">
         <v>84</v>
       </c>
@@ -1796,41 +1856,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2326,7 +2386,7 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -2351,17 +2411,17 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A1:XFD22 A24:XFD1048576">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A24:XFD1048576 A1:XFD22">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD22 A24:XFD1048576">
+  <conditionalFormatting sqref="A24:XFD1048576 A1:XFD22">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 C24:BX41 F25:F44 C3:BX22 G25:G43">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 C24:BX41 F25:F44 G25:G43 C3:BX22">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTE\Documents\GitHub\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC22285B-1C80-4D47-AF3A-54B3D7DD2ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF30F3B4-2E28-4036-8472-7E14A92446CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="93">
   <si>
     <t>Alunos</t>
   </si>
@@ -1121,7 +1121,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,8 +1130,8 @@
     <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.7109375" style="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1159,11 +1159,15 @@
       <c r="F1" s="2">
         <v>45510</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2">
+        <v>45511</v>
+      </c>
       <c r="H1" s="2">
         <v>45517</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2">
+        <v>45518</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1923,6 +1927,9 @@
       <c r="H25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1949,6 +1956,9 @@
       <c r="H26" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1975,6 +1985,9 @@
       <c r="H27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -2001,6 +2014,9 @@
       <c r="H28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -2027,6 +2043,9 @@
       <c r="H29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -2053,6 +2072,9 @@
       <c r="H30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I30" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -2080,6 +2102,9 @@
       <c r="H31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2106,8 +2131,11 @@
       <c r="H32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -2132,8 +2160,11 @@
       <c r="H33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -2158,8 +2189,11 @@
       <c r="H34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -2184,8 +2218,11 @@
       <c r="H35" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -2210,8 +2247,11 @@
       <c r="H36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -2236,8 +2276,11 @@
       <c r="H37" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2262,8 +2305,11 @@
       <c r="H38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -2288,8 +2334,11 @@
       <c r="H39" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -2314,8 +2363,11 @@
       <c r="H40" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
@@ -2340,8 +2392,11 @@
       <c r="H41" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
@@ -2366,8 +2421,11 @@
       <c r="H42" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
@@ -2390,6 +2448,9 @@
         <v>3</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF30F3B4-2E28-4036-8472-7E14A92446CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA05EE4-4260-4F01-AF6F-B7C7024E817A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="93">
   <si>
     <t>Alunos</t>
   </si>
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,13 +398,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,7 +1118,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,10 +1140,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1270,7 +1267,10 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ4" s="4" t="s">
@@ -1302,7 +1302,10 @@
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ5" s="4" t="s">
@@ -1334,7 +1337,10 @@
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ6" s="4" t="s">
@@ -1366,7 +1372,10 @@
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ7" s="4" t="s">
@@ -1398,7 +1407,10 @@
       <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ8" s="4" t="s">
@@ -1430,7 +1442,10 @@
       <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ9" s="4" t="s">
@@ -1462,7 +1477,10 @@
       <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ10" s="4" t="s">
@@ -1494,7 +1512,10 @@
       <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ11" s="4" t="s">
@@ -1526,7 +1547,10 @@
       <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ12" s="4" t="s">
@@ -1558,7 +1582,10 @@
       <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ13" s="4" t="s">
@@ -1590,7 +1617,10 @@
       <c r="G14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ14" s="4" t="s">
@@ -1622,7 +1652,10 @@
       <c r="G15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ15" s="4" t="s">
@@ -1654,7 +1687,10 @@
       <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ16" s="4" t="s">
@@ -1686,7 +1722,10 @@
       <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ17" s="4" t="s">
@@ -1718,7 +1757,10 @@
       <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ18" s="4" t="s">
@@ -1750,7 +1792,10 @@
       <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ19" s="4" t="s">
@@ -1782,7 +1827,10 @@
       <c r="G20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ20" s="4" t="s">
@@ -1814,7 +1862,10 @@
       <c r="G21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ21" s="4" t="s">
@@ -1846,7 +1897,10 @@
       <c r="G22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AJ22" s="4" t="s">
@@ -1860,41 +1914,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2444,7 +2498,7 @@
       <c r="F43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -2482,7 +2536,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 C24:BX41 F25:F44 G25:G43 C3:BX22">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 C24:BX41 G25:G43 F25:F44 C3:BX22">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA05EE4-4260-4F01-AF6F-B7C7024E817A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78DBC2-4E31-4DB7-B50E-55CE7147D9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="93">
   <si>
     <t>Alunos</t>
   </si>
@@ -395,13 +395,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,7 +1118,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1128,9 @@
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.7109375" style="1"/>
     <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1140,10 +1142,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1165,7 +1167,9 @@
       <c r="I1" s="2">
         <v>45518</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2">
+        <v>45524</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1897,10 +1901,10 @@
       <c r="G22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="9" t="s">
+      <c r="H22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="AJ22" s="4" t="s">
@@ -1914,41 +1918,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -1984,6 +1988,9 @@
       <c r="I25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2011,7 +2018,10 @@
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -2042,6 +2052,9 @@
       <c r="I27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -2071,6 +2084,9 @@
       <c r="I28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -2100,6 +2116,9 @@
       <c r="I29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -2129,6 +2148,9 @@
       <c r="I30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J30" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -2159,6 +2181,9 @@
       <c r="I31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2188,8 +2213,11 @@
       <c r="I32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -2217,8 +2245,11 @@
       <c r="I33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -2246,8 +2277,11 @@
       <c r="I34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -2275,8 +2309,11 @@
       <c r="I35" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -2304,8 +2341,11 @@
       <c r="I36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -2325,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>3</v>
@@ -2333,8 +2373,11 @@
       <c r="I37" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2362,8 +2405,11 @@
       <c r="I38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -2391,8 +2437,11 @@
       <c r="I39" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -2420,8 +2469,11 @@
       <c r="I40" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
@@ -2449,8 +2501,11 @@
       <c r="I41" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
@@ -2478,8 +2533,11 @@
       <c r="I42" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
@@ -2505,6 +2563,9 @@
         <v>3</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78DBC2-4E31-4DB7-B50E-55CE7147D9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B2663-E447-4CDF-ACA3-7D73F711E538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="94">
   <si>
     <t>Alunos</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>EVADIDO</t>
+  </si>
+  <si>
+    <t>5/P</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,6 +399,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1118,7 +1124,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,10 +1148,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1170,7 +1176,9 @@
       <c r="J1" s="2">
         <v>45524</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="2">
+        <v>45525</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1918,41 +1926,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -1991,6 +1999,9 @@
       <c r="J25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K25" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2012,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>3</v>
@@ -2021,6 +2032,9 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2055,6 +2069,9 @@
       <c r="J27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K27" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -2087,6 +2104,9 @@
       <c r="J28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K28" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -2119,6 +2139,9 @@
       <c r="J29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K29" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -2151,6 +2174,9 @@
       <c r="J30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K30" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -2184,6 +2210,9 @@
       <c r="J31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K31" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2213,11 +2242,14 @@
       <c r="I32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -2246,10 +2278,13 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -2280,8 +2315,11 @@
       <c r="J34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -2307,13 +2345,16 @@
         <v>3</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -2344,8 +2385,11 @@
       <c r="J36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -2376,8 +2420,11 @@
       <c r="J37" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2408,8 +2455,11 @@
       <c r="J38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -2440,8 +2490,11 @@
       <c r="J39" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -2472,8 +2525,11 @@
       <c r="J40" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
@@ -2504,8 +2560,11 @@
       <c r="J41" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
@@ -2536,8 +2595,11 @@
       <c r="J42" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
@@ -2566,6 +2628,9 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2587,17 +2652,17 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A24:XFD1048576 A1:XFD22">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A1:XFD22 A24:XFD1048576">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:XFD1048576 A1:XFD22">
+  <conditionalFormatting sqref="A1:XFD22 A24:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 C24:BX41 G25:G43 F25:F44 C3:BX22">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 C3:BX22 C24:BX41">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B2663-E447-4CDF-ACA3-7D73F711E538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C10455-4D4C-4A2C-B4F1-1AE2455BD29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="94">
   <si>
     <t>Alunos</t>
   </si>
@@ -378,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,12 +396,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1124,7 +1118,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,10 +1142,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1285,6 +1279,12 @@
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1320,6 +1320,12 @@
       <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1355,6 +1361,12 @@
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1390,6 +1402,12 @@
       <c r="I7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1425,6 +1443,12 @@
       <c r="I8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1460,6 +1484,12 @@
       <c r="I9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1495,6 +1525,12 @@
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1530,6 +1566,12 @@
       <c r="I11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1565,6 +1607,12 @@
       <c r="I12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1600,6 +1648,12 @@
       <c r="I13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1635,6 +1689,12 @@
       <c r="I14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1670,6 +1730,12 @@
       <c r="I15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1705,6 +1771,12 @@
       <c r="I16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1740,6 +1812,12 @@
       <c r="I17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1775,6 +1853,12 @@
       <c r="I18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1810,6 +1894,12 @@
       <c r="I19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1845,6 +1935,12 @@
       <c r="I20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -1880,6 +1976,12 @@
       <c r="I21" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -1909,10 +2011,16 @@
       <c r="G22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="H22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AJ22" s="4" t="s">
@@ -1926,41 +2034,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -1999,7 +2107,7 @@
       <c r="J25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2034,7 +2142,7 @@
       <c r="J26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2069,7 +2177,7 @@
       <c r="J27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2104,7 +2212,7 @@
       <c r="J28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2139,7 +2247,7 @@
       <c r="J29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2174,7 +2282,7 @@
       <c r="J30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L30" s="6"/>
@@ -2210,7 +2318,7 @@
       <c r="J31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2242,10 +2350,10 @@
       <c r="I32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2280,7 +2388,7 @@
       <c r="J33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2315,7 +2423,7 @@
       <c r="J34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2350,7 +2458,7 @@
       <c r="J35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2385,7 +2493,7 @@
       <c r="J36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2420,7 +2528,7 @@
       <c r="J37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2455,7 +2563,7 @@
       <c r="J38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2490,7 +2598,7 @@
       <c r="J39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2525,7 +2633,7 @@
       <c r="J40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2560,7 +2668,7 @@
       <c r="J41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2595,7 +2703,7 @@
       <c r="J42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2630,7 +2738,7 @@
       <c r="J43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2652,17 +2760,17 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A1:XFD22 A24:XFD1048576">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 A24:XFD1048576 A1:XFD22">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD22 A24:XFD1048576">
+  <conditionalFormatting sqref="A24:XFD1048576 A1:XFD22">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 G25:G43 F25:F44 C3:BX22 C24:BX41">
+  <conditionalFormatting sqref="A23:C23 AJ23:XFD23 C24:BX41 G25:G43 F25:F44 C3:BX22">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C10455-4D4C-4A2C-B4F1-1AE2455BD29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836435B-7BEC-445C-A892-929670C33D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="94">
   <si>
     <t>Alunos</t>
   </si>
@@ -1118,7 +1118,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,6 +2110,9 @@
       <c r="K25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L25" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2145,6 +2148,9 @@
       <c r="K26" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L26" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -2180,6 +2186,9 @@
       <c r="K27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -2215,6 +2224,9 @@
       <c r="K28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -2250,6 +2262,9 @@
       <c r="K29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -2285,7 +2300,9 @@
       <c r="K30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2321,6 +2338,9 @@
       <c r="K31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2356,8 +2376,11 @@
       <c r="K32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -2391,8 +2414,11 @@
       <c r="K33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>64</v>
       </c>
@@ -2426,8 +2452,11 @@
       <c r="K34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>65</v>
       </c>
@@ -2461,8 +2490,11 @@
       <c r="K35" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>69</v>
       </c>
@@ -2496,8 +2528,11 @@
       <c r="K36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -2531,8 +2566,11 @@
       <c r="K37" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
@@ -2566,8 +2604,11 @@
       <c r="K38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
@@ -2601,8 +2642,11 @@
       <c r="K39" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -2636,8 +2680,11 @@
       <c r="K40" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
@@ -2671,8 +2718,11 @@
       <c r="K41" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>79</v>
       </c>
@@ -2706,8 +2756,11 @@
       <c r="K42" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>83</v>
       </c>
@@ -2739,6 +2792,9 @@
         <v>3</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/2DES/frequencia (1).xlsx
+++ b/2DES/frequencia (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\julia_calhau-2024\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\GitHub\julia_calhau-2024\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836435B-7BEC-445C-A892-929670C33D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30711B1-E826-480A-B088-C3CDB09F87F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="94">
   <si>
     <t>Alunos</t>
   </si>
@@ -378,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,6 +396,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1118,7 +1121,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1133,9 @@
     <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="23" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1142,10 +1147,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2">
         <v>45497</v>
       </c>
@@ -1173,7 +1178,9 @@
       <c r="K1" s="2">
         <v>45525</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="2">
+        <v>45531</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -1285,6 +1292,9 @@
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L4" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1326,6 +1336,9 @@
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1367,6 +1380,9 @@
       <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1408,6 +1424,9 @@
       <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1449,6 +1468,9 @@
       <c r="K8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L8" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1490,6 +1512,9 @@
       <c r="K9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L9" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1531,6 +1556,9 @@
       <c r="K10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L10" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="4" t="s">
         <v>61</v>
       </c>
@@ -1572,6 +1600,9 @@
       <c r="K11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L11" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1613,6 +1644,9 @@
       <c r="K12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L12" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1654,6 +1688,9 @@
       <c r="K13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L13" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="4" t="s">
         <v>67</v>
       </c>
@@ -1695,6 +1732,9 @@
       <c r="K14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L14" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ14" s="4" t="s">
         <v>68</v>
       </c>
@@ -1736,6 +1776,9 @@
       <c r="K15" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="L15" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1777,6 +1820,9 @@
       <c r="K16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L16" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ16" s="4" t="s">
         <v>71</v>
       </c>
@@ -1818,6 +1864,9 @@
       <c r="K17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L17" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ17" s="4" t="s">
         <v>77</v>
       </c>
@@ -1859,6 +1908,9 @@
       <c r="K18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L18" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1900,6 +1952,9 @@
       <c r="K19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L19" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ19" s="4" t="s">
         <v>80</v>
       </c>
@@ -1941,6 +1996,9 @@
       <c r="K20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L20" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="4" t="s">
         <v>81</v>
       </c>
@@ -1982,6 +2040,9 @@
       <c r="K21" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L21" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ21" s="4" t="s">
         <v>82</v>
       </c>
@@ -2023,6 +2084,9 @@
       <c r="K22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L22" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AJ22" s="4" t="s">
         <v>84</v>
       </c>
@@ -2034,41 +2098,41 @@
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
     </row>
     <row r="24" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
